--- a/Employee_Reports35/Renz Jake Orense Lontoc Q0468.xlsx
+++ b/Employee_Reports35/Renz Jake Orense Lontoc Q0468.xlsx
@@ -557,11 +557,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-97</v>
+        <v>-98</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">

--- a/Employee_Reports35/Renz Jake Orense Lontoc Q0468.xlsx
+++ b/Employee_Reports35/Renz Jake Orense Lontoc Q0468.xlsx
@@ -557,11 +557,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
